--- a/0899611_Summer_Speed.xlsx
+++ b/0899611_Summer_Speed.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16788\OneDrive\Desktop\Traffic Data Local Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yvonne/Documents/GitHub/VIPTrafficAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F6186E-4C66-4077-854F-A07C4FD5AD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9AD5EF0A-B34E-448F-A50A-6211A7447C80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Time</t>
   </si>
@@ -65,11 +70,14 @@
   <si>
     <t>Sep</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -942,16 +950,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92009FC0-089F-4321-8366-C33A37D76F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1032,7 +1041,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1318,7 +1327,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1474,7 +1483,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1500,7 +1509,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1552,7 +1561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1604,7 +1613,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>1</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -1685,7 +1694,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -1763,7 +1772,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>7</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>8</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>9</v>
       </c>
@@ -1867,7 +1876,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>10</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>11</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>12</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>13</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>14</v>
       </c>
@@ -1997,7 +2006,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>15</v>
       </c>
@@ -2023,7 +2032,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>16</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>17</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>18</v>
       </c>
@@ -2101,7 +2110,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>19</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>20</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>21</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>22</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>23</v>
       </c>
@@ -2231,7 +2240,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2260,7 +2269,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -2286,7 +2295,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -2312,7 +2321,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -2364,7 +2373,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>6</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>7</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>8</v>
       </c>
@@ -2468,7 +2477,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>9</v>
       </c>
@@ -2494,7 +2503,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>10</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>11</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>12</v>
       </c>
@@ -2572,7 +2581,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>13</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>14</v>
       </c>
@@ -2624,7 +2633,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>15</v>
       </c>
@@ -2650,7 +2659,7 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>16</v>
       </c>
@@ -2676,7 +2685,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>17</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>18</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>19</v>
       </c>
@@ -2754,7 +2763,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>20</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>21</v>
       </c>
@@ -2806,7 +2815,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>22</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>23</v>
       </c>
